--- a/Excel_luban/Datas/__tables__.xlsx
+++ b/Excel_luban/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>##var</t>
   </si>
@@ -97,22 +97,229 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>item.xlsx</t>
-  </si>
-  <si>
-    <t>demo.TbReward</t>
-  </si>
-  <si>
-    <t>demo.Reward</t>
-  </si>
-  <si>
-    <t>reward.xlsx</t>
+    <t>TBATestItem</t>
+  </si>
+  <si>
+    <t>ATestItem</t>
+  </si>
+  <si>
+    <t>ATestItem.xlsx</t>
+  </si>
+  <si>
+    <t>TbCheckInConfig</t>
+  </si>
+  <si>
+    <t>CheckInConfig</t>
+  </si>
+  <si>
+    <t>CheckInConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbEffectConfig</t>
+  </si>
+  <si>
+    <t>EffectConfig</t>
+  </si>
+  <si>
+    <t>EffectConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbEightGiftConfig</t>
+  </si>
+  <si>
+    <t>EightGiftConfig</t>
+  </si>
+  <si>
+    <t>EightGiftConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbGMConfig</t>
+  </si>
+  <si>
+    <t>GMConfig</t>
+  </si>
+  <si>
+    <t>GMConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbGuideDescConfig</t>
+  </si>
+  <si>
+    <t>GuideDescConfig</t>
+  </si>
+  <si>
+    <t>GuideDescConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbGuideStepConfig</t>
+  </si>
+  <si>
+    <t>GuideStepConfig</t>
+  </si>
+  <si>
+    <t>GuideStepConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbGuideTypeConfig</t>
+  </si>
+  <si>
+    <t>GuideTypeConfig</t>
+  </si>
+  <si>
+    <t>GuideTypeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbHeroInfoConfig</t>
+  </si>
+  <si>
+    <t>HeroInfoConfig</t>
+  </si>
+  <si>
+    <t>HeroInfoConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbItemConfig</t>
+  </si>
+  <si>
+    <t>ItemConfig</t>
+  </si>
+  <si>
+    <t>ItemConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbMainUIBtnConfig</t>
+  </si>
+  <si>
+    <t>MainUIBtnConfig</t>
+  </si>
+  <si>
+    <t>MainUIBtnConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbPokerConfig</t>
+  </si>
+  <si>
+    <t>PokerConfig</t>
+  </si>
+  <si>
+    <t>PokerConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbRechargeConfig</t>
+  </si>
+  <si>
+    <t>RechargeConfig</t>
+  </si>
+  <si>
+    <t>RechargeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbScript_English</t>
+  </si>
+  <si>
+    <t>Script_English</t>
+  </si>
+  <si>
+    <t>Script_English.xlsx</t>
+  </si>
+  <si>
+    <t>TbScript_SimChinese</t>
+  </si>
+  <si>
+    <t>Script_SimChinese</t>
+  </si>
+  <si>
+    <t>Script_SimChinese.xlsx</t>
+  </si>
+  <si>
+    <t>TbScript_TraChinese</t>
+  </si>
+  <si>
+    <t>Script_TraChinese</t>
+  </si>
+  <si>
+    <t>Script_TraChinese.xlsx</t>
+  </si>
+  <si>
+    <t>TbShopConfig</t>
+  </si>
+  <si>
+    <t>ShopConfig</t>
+  </si>
+  <si>
+    <t>ShopConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbShopGiftMenuConfig</t>
+  </si>
+  <si>
+    <t>ShopGiftMenuConfig</t>
+  </si>
+  <si>
+    <t>ShopGiftMenuConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbSoundConfig</t>
+  </si>
+  <si>
+    <t>SoundConfig</t>
+  </si>
+  <si>
+    <t>SoundConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbTipTextConfig</t>
+  </si>
+  <si>
+    <t>TipTextConfig</t>
+  </si>
+  <si>
+    <t>TipTextConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbTodayGiftConfig</t>
+  </si>
+  <si>
+    <t>TodayGiftConfig</t>
+  </si>
+  <si>
+    <t>TodayGiftConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbWelfareMenuConfig</t>
+  </si>
+  <si>
+    <t>WelfareMenuConfig</t>
+  </si>
+  <si>
+    <t>WelfareMenuConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbCfg_English</t>
+  </si>
+  <si>
+    <t>Cfg_English</t>
+  </si>
+  <si>
+    <t>Cfg_English.xlsx</t>
+  </si>
+  <si>
+    <t>TbCfg_SimChinese</t>
+  </si>
+  <si>
+    <t>Cfg_SimChinese</t>
+  </si>
+  <si>
+    <t>Cfg_SimChinese.xlsx</t>
+  </si>
+  <si>
+    <t>TbCfg_TraChinese</t>
+  </si>
+  <si>
+    <t>Cfg_TraChinese</t>
+  </si>
+  <si>
+    <t>Cfg_TraChinese.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1054,13 +1261,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1187,6 +1394,328 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel_luban/Datas/__tables__.xlsx
+++ b/Excel_luban/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -214,33 +214,6 @@
     <t>RechargeConfig.xlsx</t>
   </si>
   <si>
-    <t>TbScript_English</t>
-  </si>
-  <si>
-    <t>Script_English</t>
-  </si>
-  <si>
-    <t>Script_English.xlsx</t>
-  </si>
-  <si>
-    <t>TbScript_SimChinese</t>
-  </si>
-  <si>
-    <t>Script_SimChinese</t>
-  </si>
-  <si>
-    <t>Script_SimChinese.xlsx</t>
-  </si>
-  <si>
-    <t>TbScript_TraChinese</t>
-  </si>
-  <si>
-    <t>Script_TraChinese</t>
-  </si>
-  <si>
-    <t>Script_TraChinese.xlsx</t>
-  </si>
-  <si>
     <t>TbShopConfig</t>
   </si>
   <si>
@@ -295,31 +268,22 @@
     <t>WelfareMenuConfig.xlsx</t>
   </si>
   <si>
-    <t>TbCfg_English</t>
-  </si>
-  <si>
-    <t>Cfg_English</t>
-  </si>
-  <si>
-    <t>Cfg_English.xlsx</t>
-  </si>
-  <si>
-    <t>TbCfg_SimChinese</t>
-  </si>
-  <si>
-    <t>Cfg_SimChinese</t>
-  </si>
-  <si>
-    <t>Cfg_SimChinese.xlsx</t>
-  </si>
-  <si>
-    <t>TbCfg_TraChinese</t>
-  </si>
-  <si>
-    <t>Cfg_TraChinese</t>
-  </si>
-  <si>
-    <t>Cfg_TraChinese.xlsx</t>
+    <t>TbCfg_Language</t>
+  </si>
+  <si>
+    <t>Cfg_Language</t>
+  </si>
+  <si>
+    <t>Cfg_Language.xlsx</t>
+  </si>
+  <si>
+    <t>TbScript_Language</t>
+  </si>
+  <si>
+    <t>Script_Language</t>
+  </si>
+  <si>
+    <t>Script_Language.xlsx</t>
   </si>
 </sst>
 </file>
@@ -485,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,7 +781,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,16 +805,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -856,90 +826,93 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1632,88 +1605,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" t="s">
+    <row r="23" s="2" customFormat="1" spans="2:5">
+      <c r="B23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" t="s">
+    <row r="24" s="2" customFormat="1" spans="2:5">
+      <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_luban/Datas/__tables__.xlsx
+++ b/Excel_luban/Datas/__tables__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="26835" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -203,6 +216,15 @@
   </si>
   <si>
     <t>PokerConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbPuzzleConfig</t>
+  </si>
+  <si>
+    <t>PuzzleConfig</t>
+  </si>
+  <si>
+    <t>PuzzleConfig.xlsx</t>
   </si>
   <si>
     <t>TbRechargeConfig</t>
@@ -289,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1234,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1605,17 +1627,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="2:5">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1631,6 +1653,20 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_luban/Datas/__tables__.xlsx
+++ b/Excel_luban/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>PuzzleConfig.xlsx</t>
+  </si>
+  <si>
+    <t>TbHitHamsterConfig</t>
+  </si>
+  <si>
+    <t>HitHamsterConfig</t>
+  </si>
+  <si>
+    <t>HitHamsterConfig.xlsx</t>
   </si>
   <si>
     <t>TbRechargeConfig</t>
@@ -1256,10 +1265,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1641,17 +1650,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="2:5">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1667,6 +1676,20 @@
       </c>
       <c r="E25" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
